--- a/Task.xlsx
+++ b/Task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Miss.AliZadeh" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
   <si>
     <t>Attributes</t>
   </si>
@@ -139,12 +139,6 @@
     <t>ChangeBaseUnitPrice</t>
   </si>
   <si>
-    <t xml:space="preserve">ProducId = Int ,UnitStock = int </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProducId = Int ,UnitPrice = int </t>
-  </si>
-  <si>
     <t>add</t>
   </si>
   <si>
@@ -152,6 +146,14 @@
   </si>
   <si>
     <t>mr.amir</t>
+  </si>
+  <si>
+    <t>DTo{ProducId = Int , 
+UnitStock = int }</t>
+  </si>
+  <si>
+    <t>DTo{ProducId = Int , 
+UnitPrice = int  }</t>
   </si>
 </sst>
 </file>
@@ -237,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -586,7 +591,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -609,7 +614,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -630,7 +635,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -651,7 +656,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -672,7 +677,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -693,7 +698,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
@@ -714,7 +719,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
@@ -735,7 +740,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -750,7 +755,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -764,183 +769,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -951,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,7 +815,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1007,7 +838,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1028,7 +859,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1049,7 +880,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
@@ -1070,7 +901,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
@@ -1091,7 +922,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
@@ -1112,7 +943,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
@@ -1133,7 +964,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
@@ -1154,7 +985,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1175,7 +1006,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1196,12 +1027,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>16</v>
@@ -1217,12 +1048,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>16</v>
@@ -1238,7 +1069,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1253,7 +1084,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1312,21 +1143,21 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1335,12 +1166,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>14</v>
@@ -1350,12 +1181,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>14</v>
@@ -1365,12 +1196,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>14</v>
@@ -1380,12 +1211,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
@@ -1395,12 +1226,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>14</v>
@@ -1410,12 +1241,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>14</v>
@@ -1425,12 +1256,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>14</v>
@@ -1440,12 +1271,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>14</v>
@@ -1455,12 +1286,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>14</v>
@@ -1470,12 +1301,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>14</v>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Miss.AliZadeh" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
   <si>
     <t>Attributes</t>
   </si>
@@ -154,6 +154,24 @@
   <si>
     <t>DTo{ProducId = Int , 
 UnitPrice = int  }</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>List&lt;categoryt&gt;</t>
+  </si>
+  <si>
+    <t>GetActiveChildCategory</t>
+  </si>
+  <si>
+    <t>GetActiveList</t>
+  </si>
+  <si>
+    <t>GetInActiveChildCategory</t>
+  </si>
+  <si>
+    <t>GetInActiveList</t>
   </si>
 </sst>
 </file>
@@ -265,10 +283,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -782,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -815,7 +833,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -838,7 +856,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -859,7 +877,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -880,7 +898,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
@@ -901,7 +919,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
@@ -922,7 +940,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
@@ -943,7 +961,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
@@ -964,7 +982,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
@@ -985,7 +1003,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +1024,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1027,7 +1045,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1048,7 +1066,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1069,7 +1087,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1084,7 +1102,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1110,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1161,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1166,10 +1184,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
@@ -1181,10 +1205,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1196,10 +1226,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1211,10 +1247,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
@@ -1226,10 +1268,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E7" s="6" t="s">
         <v>39</v>
       </c>
@@ -1241,10 +1289,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
@@ -1256,10 +1310,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
@@ -1271,7 +1331,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1286,7 +1346,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1301,7 +1361,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="51">
   <si>
     <t>Attributes</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>GetInActiveList</t>
+  </si>
+  <si>
+    <t>HaseChilde</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>HasAProduct</t>
   </si>
 </sst>
 </file>
@@ -800,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
@@ -1128,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1332,9 +1341,15 @@
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1347,9 +1362,15 @@
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>39</v>
       </c>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Task.xlsx
+++ b/Task.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
   <si>
     <t>Attributes</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>HasAProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1396,6 +1399,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A12"/>
